--- a/lease/data/info_box_NTC.xlsx
+++ b/lease/data/info_box_NTC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8517" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8509" uniqueCount="1493">
   <si>
     <t>post_id</t>
   </si>
@@ -18910,18 +18910,6 @@
       <c r="B657">
         <v>6931066</v>
       </c>
-      <c r="C657" t="s">
-        <v>32</v>
-      </c>
-      <c r="D657" t="s">
-        <v>702</v>
-      </c>
-      <c r="E657" t="s">
-        <v>711</v>
-      </c>
-      <c r="G657" t="s">
-        <v>957</v>
-      </c>
     </row>
     <row r="658" spans="1:8">
       <c r="A658" s="1">
@@ -44845,18 +44833,6 @@
       </c>
       <c r="B1844">
         <v>6802672</v>
-      </c>
-      <c r="C1844" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1844" t="s">
-        <v>701</v>
-      </c>
-      <c r="E1844" t="s">
-        <v>726</v>
-      </c>
-      <c r="G1844" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="1845" spans="1:8">
